--- a/CASUAL/LA CENRO GARDENER/SALAZAR, FRANCIS.xlsx
+++ b/CASUAL/LA CENRO GARDENER/SALAZAR, FRANCIS.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -286,6 +286,18 @@
   </si>
   <si>
     <t>3/26,29,20/2022</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>VL(11-0-0)</t>
+  </si>
+  <si>
+    <t>12/19-23,25-30/2023</t>
+  </si>
+  <si>
+    <t>01/01-02/2024</t>
   </si>
 </sst>
 </file>
@@ -2927,7 +2939,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K142" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K143" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3335,12 +3347,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K142"/>
+  <dimension ref="A2:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A62" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A84" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K65" sqref="K65"/>
+      <selection pane="bottomLeft" activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3499,7 +3511,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>27.924999999999997</v>
+        <v>20.674999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3509,7 +3521,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>86.25</v>
+        <v>88</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5251,13 +5263,15 @@
         <v>45200</v>
       </c>
       <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
@@ -5269,13 +5283,15 @@
         <v>45231</v>
       </c>
       <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
@@ -5286,14 +5302,18 @@
       <c r="A95" s="40">
         <v>45261</v>
       </c>
-      <c r="B95" s="20"/>
-      <c r="C95" s="13"/>
+      <c r="B95" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
@@ -5301,7 +5321,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="48" t="s">
+        <v>83</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5317,10 +5339,16 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="20"/>
+      <c r="A97" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="C97" s="13"/>
-      <c r="D97" s="39"/>
+      <c r="D97" s="39">
+        <v>11</v>
+      </c>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
       <c r="G97" s="13" t="str">
@@ -5330,26 +5358,33 @@
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
-      <c r="B98" s="20"/>
+      <c r="B98" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H98" s="39"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="39">
+        <v>2</v>
+      </c>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
+      <c r="K98" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45351</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5365,7 +5400,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45382</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5381,7 +5418,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45412</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -5397,7 +5436,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45443</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5413,7 +5454,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45473</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5429,7 +5472,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45504</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -5445,7 +5490,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45535</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -5461,7 +5508,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45565</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -5477,7 +5526,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>45596</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -5493,7 +5544,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>45626</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -5509,7 +5562,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>45657</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -6037,20 +6092,36 @@
       <c r="K141" s="20"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="41"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="42"/>
-      <c r="D142" s="43"/>
+      <c r="A142" s="40"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="39"/>
       <c r="E142" s="9"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H142" s="43"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="39"/>
       <c r="I142" s="9"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="15"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="41"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="42"/>
+      <c r="D143" s="43"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="43"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
